--- a/Greybox_Asset_Inventory.xlsx
+++ b/Greybox_Asset_Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretmoser/Documents/_unity_course/resources/Unit 3 Prototyping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\greybox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BD3904-EB22-524F-843F-EE311DB0A455}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D79519-F44F-44C5-8D9C-8860E91ED5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35420" yWindow="460" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Asset Group</t>
   </si>
@@ -152,13 +152,43 @@
   </si>
   <si>
     <t>ok to use and modify</t>
+  </si>
+  <si>
+    <t>Main Scene</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>Ground textures pack</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/2d/textures-materials/floors/yughues-free-ground-materials-13001</t>
+  </si>
+  <si>
+    <t>Yughues Free Ground Materials</t>
+  </si>
+  <si>
+    <t>Terrain Layers</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/vegetation/trees/dream-forest-tree-105297</t>
+  </si>
+  <si>
+    <t>Trees Prefab</t>
+  </si>
+  <si>
+    <t>DreamForestTree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +249,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -240,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,9 +310,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +350,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -419,7 +456,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,7 +598,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,20 +608,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA96DA-6290-1643-8A0A-EF905F58FA39}">
   <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +641,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
@@ -612,8 +667,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
       <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
@@ -621,7 +690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5"/>
       <c r="H5" s="6" t="s">
         <v>8</v>
@@ -630,98 +699,99 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E16"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E23"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E24"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E25"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E26"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E27"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E28"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E29"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E30"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E31"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E32"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -729,20 +799,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0B6712-1880-8B4D-B351-73A04E1B6A4F}">
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+    <sheetView topLeftCell="B2" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.83203125" customWidth="1"/>
+    <col min="1" max="2" width="19.875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
@@ -773,7 +843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -796,7 +866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
@@ -807,27 +877,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>18</v>
       </c>
@@ -841,7 +911,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -849,37 +919,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -887,27 +957,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>32</v>
       </c>

--- a/Greybox_Asset_Inventory.xlsx
+++ b/Greybox_Asset_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\greybox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D79519-F44F-44C5-8D9C-8860E91ED5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA2B60-2900-433C-A2F8-E5F58AEE67C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>Asset Group</t>
   </si>
@@ -182,6 +182,21 @@
   </si>
   <si>
     <t>DreamForestTree</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/humanoids/fantasy/earth-mage-57637</t>
+  </si>
+  <si>
+    <t>Character Models</t>
+  </si>
+  <si>
+    <t>WarriorMage</t>
+  </si>
+  <si>
+    <t>Main character model</t>
+  </si>
+  <si>
+    <t>Earth_Mage</t>
   </si>
 </sst>
 </file>
@@ -609,7 +624,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -691,7 +706,21 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E5"/>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
       <c r="H5" s="6" t="s">
         <v>8</v>
       </c>

--- a/Greybox_Asset_Inventory.xlsx
+++ b/Greybox_Asset_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\greybox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEA2B60-2900-433C-A2F8-E5F58AEE67C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF4A5F-8484-480C-81FE-38ECF6BB3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>Asset Group</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>Earth_Mage</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>CharacterAnimations</t>
+  </si>
+  <si>
+    <t>FrankMage</t>
+  </si>
+  <si>
+    <t>main character attack animation</t>
   </si>
 </sst>
 </file>
@@ -624,7 +636,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,7 +741,18 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6"/>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E7"/>

--- a/Greybox_Asset_Inventory.xlsx
+++ b/Greybox_Asset_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\greybox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF4A5F-8484-480C-81FE-38ECF6BB3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8553A25-9DEF-406E-A4FD-AB2F986B60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Asset Group</t>
   </si>
@@ -209,13 +209,28 @@
   </si>
   <si>
     <t>main character attack animation</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/vfx/particles/spells/magic-effects-free-247933</t>
+  </si>
+  <si>
+    <t>VFX</t>
+  </si>
+  <si>
+    <t>Hovl Studio</t>
+  </si>
+  <si>
+    <t>Character vfx</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/animations/frank-rpg-mage-138889</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,6 +297,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -300,10 +323,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -319,8 +343,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -636,7 +662,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -753,9 +779,26 @@
       <c r="E6" t="s">
         <v>60</v>
       </c>
+      <c r="F6" s="11" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E7"/>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E8"/>
@@ -842,8 +885,12 @@
       <c r="E35"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{BAD17198-0A1A-4A89-B926-C15814202BB9}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{5724D902-3D6C-4E2E-91E4-45661C15348F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Greybox_Asset_Inventory.xlsx
+++ b/Greybox_Asset_Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\greybox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8553A25-9DEF-406E-A4FD-AB2F986B60DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E166E641-B3F1-41BB-8EF8-5585ECC44F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Asset Group</t>
   </si>
@@ -220,10 +220,13 @@
     <t>Hovl Studio</t>
   </si>
   <si>
-    <t>Character vfx</t>
-  </si>
-  <si>
     <t>https://assetstore.unity.com/packages/3d/animations/frank-rpg-mage-138889</t>
+  </si>
+  <si>
+    <t>StoneSlash</t>
+  </si>
+  <si>
+    <t>Character basic attack vfx</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -780,7 +783,7 @@
         <v>60</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -788,13 +791,13 @@
         <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>61</v>

--- a/Greybox_Asset_Inventory.xlsx
+++ b/Greybox_Asset_Inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\GitHub\greybox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E166E641-B3F1-41BB-8EF8-5585ECC44F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DC8E0E-82CB-47BE-8024-45F6851EA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
+    <workbookView xWindow="1725" yWindow="0" windowWidth="10950" windowHeight="10920" xr2:uid="{01B14A2B-A28C-7B4F-8941-09249883C81A}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Asset Group</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Character basic attack vfx</t>
+  </si>
+  <si>
+    <t>FourEvilDragonsHP</t>
+  </si>
+  <si>
+    <t>Enemy dragons</t>
   </si>
 </sst>
 </file>
@@ -662,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AA96DA-6290-1643-8A0A-EF905F58FA39}">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -770,41 +776,48 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>64</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>62</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E9"/>
@@ -887,10 +900,13 @@
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35"/>
     </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{BAD17198-0A1A-4A89-B926-C15814202BB9}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{5724D902-3D6C-4E2E-91E4-45661C15348F}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{BAD17198-0A1A-4A89-B926-C15814202BB9}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{5724D902-3D6C-4E2E-91E4-45661C15348F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
